--- a/biology/Zoologie/Ceylonositalces_parvulus/Ceylonositalces_parvulus.xlsx
+++ b/biology/Zoologie/Ceylonositalces_parvulus/Ceylonositalces_parvulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceylonositalces parvulus, unique représentant du genre Ceylonositalces, est une espèce d'opilions laniatores de la famille des Podoctidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka[1]. Elle se rencontre vers Colombo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka. Elle se rencontre vers Colombo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syntype mesure 2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syntype mesure 2 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Eusitalces parvulus par Roewer en 1915. Le nom Eusitalces Roewer, 1915 étant préoccupé par Eusitalces Brunner, 1911, il est remplacé par Ceylonositalces par Özdikmen en 2006[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Eusitalces parvulus par Roewer en 1915. Le nom Eusitalces Roewer, 1915 étant préoccupé par Eusitalces Brunner, 1911, il est remplacé par Ceylonositalces par Özdikmen en 2006.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roewer, 1915 : « 106 neue Opilioniden. » Archiv für Naturgeschichte, vol. 81, no 3, p. 1–152 (texte intégral).
 Özdikmen, 2006 : « Nomenclatural changes for some Laniatores (Opiliones) genera: New substitute names and new combinations. » Munis Entomology &amp; Zoology, vol. 1, no 1, p. 63–68 (texte intégral).</t>
